--- a/ЗАВОДЫ/Новые Фермы/2025/06,25/03,06,25 на 09,06,25/заказ НФ 03,06,25 на 09,06,25.xlsx
+++ b/ЗАВОДЫ/Новые Фермы/2025/06,25/03,06,25 на 09,06,25/заказ НФ 03,06,25 на 09,06,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Новые Фермы\2025\06,25\03,06,25 на 09,06,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEB512-E875-4F40-A824-561D8A9FEEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B72610-D255-41A6-90D0-E667DCD6B9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,18 +715,22 @@
       <c r="C3" s="3">
         <v>800</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="11">
+        <v>450</v>
+      </c>
       <c r="F3" s="5">
         <f>C3+D3+E3</f>
-        <v>800</v>
+        <v>1950</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="K3">
         <f>F3</f>
-        <v>800</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,11 +743,15 @@
       <c r="C4" s="8">
         <v>1380</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1000</v>
+      </c>
       <c r="F4" s="9">
         <f>C4+D4+E4</f>
-        <v>1380</v>
+        <v>3380</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -753,13 +761,13 @@
       </c>
       <c r="K4">
         <f>F4*J4</f>
-        <v>524.4</v>
+        <v>1284.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" s="13">
         <f>SUM(K3:K4)</f>
-        <v>1324.4</v>
+        <v>3234.4</v>
       </c>
     </row>
   </sheetData>

--- a/ЗАВОДЫ/Новые Фермы/2025/06,25/03,06,25 на 09,06,25/заказ НФ 03,06,25 на 09,06,25.xlsx
+++ b/ЗАВОДЫ/Новые Фермы/2025/06,25/03,06,25 на 09,06,25/заказ НФ 03,06,25 на 09,06,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Новые Фермы\2025\06,25\03,06,25 на 09,06,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B72610-D255-41A6-90D0-E667DCD6B9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6CBCFC-3FF6-417D-9AAD-5949C77D2BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Сосиски Кавказские вес.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Химич (опты)</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>ед. изм.</t>
   </si>
   <si>
@@ -73,13 +70,25 @@
   </si>
   <si>
     <t>ВЕС</t>
+  </si>
+  <si>
+    <t>отменить</t>
+  </si>
+  <si>
+    <t>ЗАКАЗ</t>
+  </si>
+  <si>
+    <t>Уменьшить на</t>
+  </si>
+  <si>
+    <t>Итого к отгрузке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +112,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -322,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,6 +373,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -658,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,47 +700,58 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="19"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>800</v>
@@ -719,26 +760,32 @@
         <v>700</v>
       </c>
       <c r="E3" s="11">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
+        <v>1950</v>
+      </c>
+      <c r="G3" s="16">
+        <v>-450</v>
+      </c>
+      <c r="H3" s="5">
         <f>C3+D3+E3</f>
-        <v>1950</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <f>F3</f>
-        <v>1950</v>
+        <v>1500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <f>H3</f>
+        <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
         <v>1380</v>
@@ -747,35 +794,58 @@
         <v>1000</v>
       </c>
       <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3380</v>
+      </c>
+      <c r="G4" s="17">
+        <v>-1000</v>
+      </c>
+      <c r="H4" s="9">
+        <f>C4+D4+E4</f>
+        <v>2380</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0.38</v>
+      </c>
+      <c r="M4">
+        <f>H4*L4</f>
+        <v>904.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="13">
+        <f>SUM(M3:M4)</f>
+        <v>2404.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="15">
         <v>1000</v>
       </c>
-      <c r="F4" s="9">
-        <f>C4+D4+E4</f>
-        <v>3380</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>0.38</v>
-      </c>
-      <c r="K4">
-        <f>F4*J4</f>
-        <v>1284.4000000000001</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="13">
-        <f>SUM(K3:K4)</f>
-        <v>3234.4</v>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
